--- a/Refund.xlsx
+++ b/Refund.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="40">
   <si>
     <t>100830</t>
   </si>
@@ -97,6 +97,48 @@
   </si>
   <si>
     <t>Bank Account</t>
+  </si>
+  <si>
+    <t>102888</t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>Z11</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>345687</t>
+  </si>
+  <si>
+    <t>345699</t>
+  </si>
+  <si>
+    <t>345705</t>
+  </si>
+  <si>
+    <t>345713</t>
+  </si>
+  <si>
+    <t>345721</t>
+  </si>
+  <si>
+    <t>345727</t>
   </si>
 </sst>
 </file>
@@ -104,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,12 +157,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,17 +189,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,13 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -617,6 +688,1245 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>106</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1562412</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>70</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9">
+        <v>20</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>107</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1562413</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>70</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>20</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>108</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1562414</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>70</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="9">
+        <v>20</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="8">
+        <v>10</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>109</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1562415</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>50</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>20</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>110</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1562416</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="9">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="8">
+        <v>-10</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>111</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1562417</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>70</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="9">
+        <v>20</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1562419</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>70</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="9">
+        <v>40</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8">
+        <v>10</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>113</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1562420</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
+        <v>23</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="9">
+        <v>20</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="8">
+        <v>3</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>114</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1562421</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="9">
+        <v>20</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="8">
+        <v>-5</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>118</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1562428</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>80</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="9">
+        <v>20</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>119</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1562429</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
+        <v>80</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="9">
+        <v>20</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>120</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1562430</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9">
+        <v>80</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="9">
+        <v>20</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="8">
+        <v>20</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>121</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1562431</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9">
+        <v>50</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="9">
+        <v>40</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="8">
+        <v>10</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>140</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1562459</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="11">
+        <v>42014</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="9">
+        <v>60</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="9">
+        <v>20</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>141</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1562460</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="11">
+        <v>42014</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9">
+        <v>60</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="9">
+        <v>20</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>142</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1562461</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="11">
+        <v>42014</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9">
+        <v>60</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="9">
+        <v>10</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="8">
+        <v>10</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>143</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1562462</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="11">
+        <v>42026</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="9">
+        <v>110</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="9">
+        <v>40</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>144</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1562463</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="11">
+        <v>42026</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="9">
+        <v>110</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="9">
+        <v>20</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>145</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1562464</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="11">
+        <v>42026</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="9">
+        <v>110</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="9">
+        <v>20</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>146</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1562465</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="11">
+        <v>42026</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="9">
+        <v>110</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="9">
+        <v>20</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="9">
+        <v>10</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>149</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1562468</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="14">
+        <v>42032</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="15">
+        <v>35</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="15">
+        <v>40</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="15">
+        <v>-5</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>151</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1562470</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="11">
+        <v>42040</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>125</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="9">
+        <v>40</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>152</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1562471</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="11">
+        <v>42040</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9">
+        <v>125</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="9">
+        <v>20</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>153</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1562472</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="11">
+        <v>42040</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="9">
+        <v>125</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="9">
+        <v>60</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="9">
+        <v>5</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>154</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1562473</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="11">
+        <v>42048</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="9">
+        <v>75</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="9">
+        <v>20</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>155</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1562474</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="11">
+        <v>42048</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="9">
+        <v>75</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="9">
+        <v>20</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>156</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1562475</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="11">
+        <v>42048</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="9">
+        <v>75</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="9">
+        <v>20</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>157</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1562476</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="11">
+        <v>42048</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="9">
+        <v>75</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="9">
+        <v>20</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="9">
+        <v>-5</v>
+      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>159</v>
+      </c>
+      <c r="B32" s="16">
+        <v>1562478</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="18">
+        <v>42054</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="19">
+        <v>100</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="19">
+        <v>40</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>160</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1562479</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="18">
+        <v>42054</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="19">
+        <v>100</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="19">
+        <v>60</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
